--- a/co2_emissions (1).xlsx
+++ b/co2_emissions (1).xlsx
@@ -19088,6 +19088,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="128.63"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
